--- a/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>48,95%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,29; 50,52</t>
+          <t>33,15; 57,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24,7; 50,89</t>
+          <t>39,47; 63,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,36; 47,48</t>
+          <t>40,39; 56,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>39,84%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,15; 57,59</t>
+          <t>30,29; 50,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,47; 63,33</t>
+          <t>24,7; 50,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,39; 56,86</t>
+          <t>31,36; 47,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>52,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>48,16%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,16; 61,25</t>
+          <t>29,39; 61,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,07; 65,7</t>
+          <t>33,12; 71,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,7; 59,31</t>
+          <t>36,9; 60,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>47,63%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,15; 57,59</t>
+          <t>35,73; 60,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39,47; 63,33</t>
+          <t>35,46; 58,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,39; 56,86</t>
+          <t>39,81; 55,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>52,19%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,29; 50,52</t>
+          <t>30,82; 57,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,7; 50,89</t>
+          <t>48,77; 73,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31,36; 47,48</t>
+          <t>42,57; 61,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>36,77%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,35; 50,71</t>
+          <t>30,13; 54,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,41; 53,18</t>
+          <t>17,54; 45,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,63; 49,09</t>
+          <t>26,56; 45,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>43,95%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>45,8%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>44,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36,93; 50,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37,26; 53,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>39,46; 49,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,39; 61,23</t>
+          <t>27,27; 59,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,12; 71,22</t>
+          <t>33,75; 70,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,9; 60,48</t>
+          <t>36,11; 60,79</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,73; 60,15</t>
+          <t>35,28; 59,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,46; 58,96</t>
+          <t>35,41; 60,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,81; 55,88</t>
+          <t>39,39; 56,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 57,45</t>
+          <t>30,63; 57,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,77; 73,86</t>
+          <t>49,33; 74,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,57; 61,34</t>
+          <t>42,58; 61,29</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,13; 54,46</t>
+          <t>28,54; 53,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,54; 45,6</t>
+          <t>19,13; 45,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 45,73</t>
+          <t>27,18; 45,98</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,93; 50,82</t>
+          <t>37,01; 50,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,26; 53,24</t>
+          <t>37,47; 53,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,46; 49,72</t>
+          <t>39,76; 49,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A112_2023R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,16%</t>
+          <t>47,2%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,27; 59,82</t>
+          <t>34,66; 68,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,75; 70,22</t>
+          <t>27,78; 57,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,11; 60,79</t>
+          <t>35,68; 58,81</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,62%</t>
+          <t>46,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>47,05%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,28; 59,13</t>
+          <t>33,94; 59,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,41; 60,73</t>
+          <t>35,94; 60,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>39,39; 56,94</t>
+          <t>38,47; 56,66</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>51,46%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,63; 57,65</t>
+          <t>46,95; 73,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,33; 74,07</t>
+          <t>30,42; 56,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,58; 61,29</t>
+          <t>40,3; 60,68</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>31,49%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,54; 53,49</t>
+          <t>8,93; 41,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 45,37</t>
+          <t>28,39; 53,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,18; 45,98</t>
+          <t>15,82; 42,22</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>41,88%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,01; 50,02</t>
+          <t>23,77; 49,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37,47; 53,55</t>
+          <t>37,26; 50,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,76; 49,83</t>
+          <t>31,87; 46,96</t>
         </is>
       </c>
     </row>
